--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>TPJ452 Project - ***</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Soil Moisture Sensor</t>
   </si>
   <si>
-    <t>12v Liquid Water Pump</t>
-  </si>
-  <si>
     <t>Adjustable Sprayer Heads Nozzle</t>
   </si>
   <si>
@@ -96,13 +93,61 @@
     <t>Resistors</t>
   </si>
   <si>
-    <t>L293D Chip</t>
-  </si>
-  <si>
     <t>motor</t>
   </si>
   <si>
     <t>Seller</t>
+  </si>
+  <si>
+    <t>12v Liquid Water Pump - 100ml/min</t>
+  </si>
+  <si>
+    <t>https://www.creatroninc.com/product/12v-liquid-pump/?search_query=water+pump&amp;results=5</t>
+  </si>
+  <si>
+    <t>Texas L293D Quadruple Half-H Drivers</t>
+  </si>
+  <si>
+    <t>1 pack</t>
+  </si>
+  <si>
+    <t>Sodial 50 - 100k ohm Photoresistor Light-Dependent Resistance</t>
+  </si>
+  <si>
+    <t>owned</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>DC 2A DPOT Relay</t>
+  </si>
+  <si>
+    <t>creatron</t>
+  </si>
+  <si>
+    <t>LM355 DZ Temperature sensor</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>transistor</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>amazon.ca</t>
+  </si>
+  <si>
+    <t>RioRand SG90 Micro 9g Servo</t>
+  </si>
+  <si>
+    <t>Owned</t>
   </si>
 </sst>
 </file>
@@ -144,12 +189,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -224,7 +275,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -262,14 +313,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -278,19 +344,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -299,8 +356,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -319,6 +390,7 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -337,6 +409,7 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -612,517 +685,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:G18"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="13">
+      <c r="F2" s="15"/>
+      <c r="G2" s="17">
         <v>1</v>
       </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <v>42627</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="12" t="s">
-        <v>18</v>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="9">
         <v>27.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="I10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="9">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>3</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="12" t="s">
-        <v>18</v>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="H12" s="9">
         <v>39.950000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="I12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>4</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="H13" s="4">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>5</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="12" t="s">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="H14" s="9">
+        <v>28</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>6</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>7</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5.52</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>9</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="12">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>12</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
+      <c r="B22" s="1"/>
+      <c r="C22" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>14</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
+      <c r="B23" s="1"/>
+      <c r="C23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>15</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
+      <c r="B24" s="1"/>
+      <c r="C24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>16</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="9"/>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="4">
+        <v>131.55000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="9"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="9"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="9"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="9"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C17:F17"/>
+  <mergeCells count="41">
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="A7:H7"/>
@@ -1136,6 +1290,11 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1153,370 +1312,370 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -1528,11 +1687,6 @@
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
@@ -1540,11 +1694,11 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
@@ -1552,15 +1706,20 @@
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
